--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.78624045734569</v>
+        <v>15.12165933333333</v>
       </c>
       <c r="H2">
-        <v>9.78624045734569</v>
+        <v>45.364978</v>
       </c>
       <c r="I2">
-        <v>0.124258062487007</v>
+        <v>0.1696222886509932</v>
       </c>
       <c r="J2">
-        <v>0.124258062487007</v>
+        <v>0.1696222886509932</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>97.30751446100092</v>
+        <v>232.2511563162795</v>
       </c>
       <c r="R2">
-        <v>97.30751446100092</v>
+        <v>2090.260406846516</v>
       </c>
       <c r="S2">
-        <v>0.00864577208861534</v>
+        <v>0.0171665018877096</v>
       </c>
       <c r="T2">
-        <v>0.00864577208861534</v>
+        <v>0.0171665018877096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.78624045734569</v>
+        <v>15.12165933333333</v>
       </c>
       <c r="H3">
-        <v>9.78624045734569</v>
+        <v>45.364978</v>
       </c>
       <c r="I3">
-        <v>0.124258062487007</v>
+        <v>0.1696222886509932</v>
       </c>
       <c r="J3">
-        <v>0.124258062487007</v>
+        <v>0.1696222886509932</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>494.9168567814849</v>
+        <v>765.0435276889702</v>
       </c>
       <c r="R3">
-        <v>494.9168567814849</v>
+        <v>6885.391749200732</v>
       </c>
       <c r="S3">
-        <v>0.0439733598196213</v>
+        <v>0.05654706469735737</v>
       </c>
       <c r="T3">
-        <v>0.0439733598196213</v>
+        <v>0.05654706469735736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.78624045734569</v>
+        <v>15.12165933333333</v>
       </c>
       <c r="H4">
-        <v>9.78624045734569</v>
+        <v>45.364978</v>
       </c>
       <c r="I4">
-        <v>0.124258062487007</v>
+        <v>0.1696222886509932</v>
       </c>
       <c r="J4">
-        <v>0.124258062487007</v>
+        <v>0.1696222886509932</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>557.711084969067</v>
+        <v>913.002794628629</v>
       </c>
       <c r="R4">
-        <v>557.711084969067</v>
+        <v>8217.025151657661</v>
       </c>
       <c r="S4">
-        <v>0.04955262662545393</v>
+        <v>0.06748325582557241</v>
       </c>
       <c r="T4">
-        <v>0.04955262662545393</v>
+        <v>0.06748325582557239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.78624045734569</v>
+        <v>15.12165933333333</v>
       </c>
       <c r="H5">
-        <v>9.78624045734569</v>
+        <v>45.364978</v>
       </c>
       <c r="I5">
-        <v>0.124258062487007</v>
+        <v>0.1696222886509932</v>
       </c>
       <c r="J5">
-        <v>0.124258062487007</v>
+        <v>0.1696222886509932</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>248.5796895059724</v>
+        <v>384.5773266059617</v>
       </c>
       <c r="R5">
-        <v>248.5796895059724</v>
+        <v>3461.195939453656</v>
       </c>
       <c r="S5">
-        <v>0.02208630395331647</v>
+        <v>0.02842546624035387</v>
       </c>
       <c r="T5">
-        <v>0.02208630395331647</v>
+        <v>0.02842546624035387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.9028759150123</v>
+        <v>30.93224</v>
       </c>
       <c r="H6">
-        <v>30.9028759150123</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I6">
-        <v>0.392380659683619</v>
+        <v>0.3469723279862584</v>
       </c>
       <c r="J6">
-        <v>0.392380659683619</v>
+        <v>0.3469723279862583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>307.2765336283372</v>
+        <v>475.0833456230932</v>
       </c>
       <c r="R6">
-        <v>307.2765336283372</v>
+        <v>4275.75011060784</v>
       </c>
       <c r="S6">
-        <v>0.02730151820900825</v>
+        <v>0.03511508523278153</v>
       </c>
       <c r="T6">
-        <v>0.02730151820900825</v>
+        <v>0.03511508523278152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.9028759150123</v>
+        <v>30.93224</v>
       </c>
       <c r="H7">
-        <v>30.9028759150123</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I7">
-        <v>0.392380659683619</v>
+        <v>0.3469723279862584</v>
       </c>
       <c r="J7">
-        <v>0.392380659683619</v>
+        <v>0.3469723279862583</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>1562.842674878889</v>
+        <v>1564.941352484853</v>
       </c>
       <c r="R7">
-        <v>1562.842674878889</v>
+        <v>14084.47217236368</v>
       </c>
       <c r="S7">
-        <v>0.1388585624883081</v>
+        <v>0.1156703333911582</v>
       </c>
       <c r="T7">
-        <v>0.1388585624883081</v>
+        <v>0.1156703333911581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.9028759150123</v>
+        <v>30.93224</v>
       </c>
       <c r="H8">
-        <v>30.9028759150123</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I8">
-        <v>0.392380659683619</v>
+        <v>0.3469723279862584</v>
       </c>
       <c r="J8">
-        <v>0.392380659683619</v>
+        <v>0.3469723279862583</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>1761.133555868149</v>
+        <v>1867.600700530933</v>
       </c>
       <c r="R8">
-        <v>1761.133555868149</v>
+        <v>16808.4063047784</v>
       </c>
       <c r="S8">
-        <v>0.1564767061001355</v>
+        <v>0.1380409529909617</v>
       </c>
       <c r="T8">
-        <v>0.1564767061001355</v>
+        <v>0.1380409529909616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.9028759150123</v>
+        <v>30.93224</v>
       </c>
       <c r="H9">
-        <v>30.9028759150123</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I9">
-        <v>0.392380659683619</v>
+        <v>0.3469723279862584</v>
       </c>
       <c r="J9">
-        <v>0.392380659683619</v>
+        <v>0.3469723279862583</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>784.9620427044855</v>
+        <v>786.6754502868265</v>
       </c>
       <c r="R9">
-        <v>784.9620427044855</v>
+        <v>7080.079052581439</v>
       </c>
       <c r="S9">
-        <v>0.06974387288616718</v>
+        <v>0.058145956371357</v>
       </c>
       <c r="T9">
-        <v>0.06974387288616718</v>
+        <v>0.058145956371357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.95668393528044</v>
+        <v>4.447555666666666</v>
       </c>
       <c r="H10">
-        <v>3.95668393528044</v>
+        <v>13.342667</v>
       </c>
       <c r="I10">
-        <v>0.05023889222979133</v>
+        <v>0.04988900718188559</v>
       </c>
       <c r="J10">
-        <v>0.05023889222979133</v>
+        <v>0.04988900718188558</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>39.34249121795426</v>
+        <v>68.30929884046377</v>
       </c>
       <c r="R10">
-        <v>39.34249121795426</v>
+        <v>614.7836895641739</v>
       </c>
       <c r="S10">
-        <v>0.003495580113754806</v>
+        <v>0.005048981137885276</v>
       </c>
       <c r="T10">
-        <v>0.003495580113754806</v>
+        <v>0.005048981137885276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.95668393528044</v>
+        <v>4.447555666666666</v>
       </c>
       <c r="H11">
-        <v>3.95668393528044</v>
+        <v>13.342667</v>
       </c>
       <c r="I11">
-        <v>0.05023889222979133</v>
+        <v>0.04988900718188559</v>
       </c>
       <c r="J11">
-        <v>0.05023889222979133</v>
+        <v>0.04988900718188558</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>200.100292350462</v>
+        <v>225.0132476744331</v>
       </c>
       <c r="R11">
-        <v>200.100292350462</v>
+        <v>2025.119229069898</v>
       </c>
       <c r="S11">
-        <v>0.01777890980064808</v>
+        <v>0.01663152253891306</v>
       </c>
       <c r="T11">
-        <v>0.01777890980064808</v>
+        <v>0.01663152253891306</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.95668393528044</v>
+        <v>4.447555666666666</v>
       </c>
       <c r="H12">
-        <v>3.95668393528044</v>
+        <v>13.342667</v>
       </c>
       <c r="I12">
-        <v>0.05023889222979133</v>
+        <v>0.04988900718188559</v>
       </c>
       <c r="J12">
-        <v>0.05023889222979133</v>
+        <v>0.04988900718188558</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>225.4886848573767</v>
+        <v>268.5307652700544</v>
       </c>
       <c r="R12">
-        <v>225.4886848573767</v>
+        <v>2416.77688743049</v>
       </c>
       <c r="S12">
-        <v>0.02003466832584467</v>
+        <v>0.0198480557084459</v>
       </c>
       <c r="T12">
-        <v>0.02003466832584467</v>
+        <v>0.0198480557084459</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.95668393528044</v>
+        <v>4.447555666666666</v>
       </c>
       <c r="H13">
-        <v>3.95668393528044</v>
+        <v>13.342667</v>
       </c>
       <c r="I13">
-        <v>0.05023889222979133</v>
+        <v>0.04988900718188559</v>
       </c>
       <c r="J13">
-        <v>0.05023889222979133</v>
+        <v>0.04988900718188558</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N13">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q13">
-        <v>100.5034842943199</v>
+        <v>113.1112023167649</v>
       </c>
       <c r="R13">
-        <v>100.5034842943199</v>
+        <v>1018.000820850884</v>
       </c>
       <c r="S13">
-        <v>0.008929733989543767</v>
+        <v>0.008360447796641355</v>
       </c>
       <c r="T13">
-        <v>0.008929733989543767</v>
+        <v>0.008360447796641355</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.1115878366438</v>
+        <v>38.64755633333333</v>
       </c>
       <c r="H14">
-        <v>34.1115878366438</v>
+        <v>115.942669</v>
       </c>
       <c r="I14">
-        <v>0.4331223855995825</v>
+        <v>0.4335163761808628</v>
       </c>
       <c r="J14">
-        <v>0.4331223855995825</v>
+        <v>0.4335163761808628</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N14">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q14">
-        <v>339.1817155085737</v>
+        <v>593.5816598796908</v>
       </c>
       <c r="R14">
-        <v>339.1817155085737</v>
+        <v>5342.234938917218</v>
       </c>
       <c r="S14">
-        <v>0.03013629343176762</v>
+        <v>0.04387371346801026</v>
       </c>
       <c r="T14">
-        <v>0.03013629343176762</v>
+        <v>0.04387371346801026</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.1115878366438</v>
+        <v>38.64755633333333</v>
       </c>
       <c r="H15">
-        <v>34.1115878366438</v>
+        <v>115.942669</v>
       </c>
       <c r="I15">
-        <v>0.4331223855995825</v>
+        <v>0.4335163761808628</v>
       </c>
       <c r="J15">
-        <v>0.4331223855995825</v>
+        <v>0.4335163761808628</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N15">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q15">
-        <v>1725.11598356089</v>
+        <v>1955.27899300281</v>
       </c>
       <c r="R15">
-        <v>1725.11598356089</v>
+        <v>17597.51093702529</v>
       </c>
       <c r="S15">
-        <v>0.153276545012077</v>
+        <v>0.144521564743783</v>
       </c>
       <c r="T15">
-        <v>0.153276545012077</v>
+        <v>0.1445215647437829</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.1115878366438</v>
+        <v>38.64755633333333</v>
       </c>
       <c r="H16">
-        <v>34.1115878366438</v>
+        <v>115.942669</v>
       </c>
       <c r="I16">
-        <v>0.4331223855995825</v>
+        <v>0.4335163761808628</v>
       </c>
       <c r="J16">
-        <v>0.4331223855995825</v>
+        <v>0.4335163761808628</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N16">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q16">
-        <v>1943.995832241405</v>
+        <v>2333.429563521493</v>
       </c>
       <c r="R16">
-        <v>1943.995832241405</v>
+        <v>21000.86607169343</v>
       </c>
       <c r="S16">
-        <v>0.1727240182824048</v>
+        <v>0.172472006780796</v>
       </c>
       <c r="T16">
-        <v>0.1727240182824048</v>
+        <v>0.172472006780796</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.1115878366438</v>
+        <v>38.64755633333333</v>
       </c>
       <c r="H17">
-        <v>34.1115878366438</v>
+        <v>115.942669</v>
       </c>
       <c r="I17">
-        <v>0.4331223855995825</v>
+        <v>0.4335163761808628</v>
       </c>
       <c r="J17">
-        <v>0.4331223855995825</v>
+        <v>0.4335163761808628</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N17">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q17">
-        <v>866.4663360712569</v>
+        <v>982.8930520715763</v>
       </c>
       <c r="R17">
-        <v>866.4663360712569</v>
+        <v>8846.037468644188</v>
       </c>
       <c r="S17">
-        <v>0.07698552887333318</v>
+        <v>0.07264909118827353</v>
       </c>
       <c r="T17">
-        <v>0.07698552887333318</v>
+        <v>0.07264909118827353</v>
       </c>
     </row>
   </sheetData>
